--- a/data/output/FV2410_FV2404/INVOIC/31001.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3588" uniqueCount="299">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3609" uniqueCount="299">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1021,6 +1021,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U170" totalsRowShown="0">
+  <autoFilter ref="A1:U170"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1310,7 +1340,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9123,5 +9156,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/INVOIC/31001.xlsx
+++ b/data/output/FV2410_FV2404/INVOIC/31001.xlsx
@@ -1930,7 +1930,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2498,7 +2498,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3058,7 +3058,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -3332,7 +3332,7 @@
         <v>283</v>
       </c>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2"/>
@@ -3472,7 +3472,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4614,7 +4614,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -4800,7 +4800,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5878,7 +5878,7 @@
         <v>288</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="K111" s="2"/>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -7694,7 +7694,7 @@
         <v>296</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7898,7 +7898,7 @@
         <v>296</v>
       </c>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="K144" s="2"/>
       <c r="L144" s="4"/>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N144" s="2"/>
@@ -8966,7 +8966,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -9154,7 +9154,7 @@
       </c>
       <c r="K150" s="2"/>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -9342,7 +9342,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -9748,7 +9748,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -9898,7 +9898,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N168" s="2"/>
